--- a/documents/Challenges - Zusammenfassung gemeinsames Projekt.xlsx
+++ b/documents/Challenges - Zusammenfassung gemeinsames Projekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volker.gronau\Documents\workspace_CM\backend\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7201F3F-E244-4081-8E4B-1B17279968A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE88E92-8A40-4DE2-8B69-4A4BA4428AE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Challenges" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="684">
   <si>
     <t>alle Challenges, die sich ähneln</t>
   </si>
@@ -1736,12 +1736,6 @@
     <t>Male ein Mandala aus!</t>
   </si>
   <si>
-    <t>NudelkunstWerke</t>
-  </si>
-  <si>
-    <t>Klebstoff</t>
-  </si>
-  <si>
     <t>Nimm dir eine Hand voll Nudeln und gestalte ein Bild.</t>
   </si>
   <si>
@@ -2079,6 +2073,9 @@
   </si>
   <si>
     <t>Reinige heute zwei Haushaltsgeräte!</t>
+  </si>
+  <si>
+    <t>Nudelkunstwerke</t>
   </si>
 </sst>
 </file>
@@ -2749,10 +2746,10 @@
   <dimension ref="A1:AC941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3091,7 +3088,7 @@
       <c r="P10" s="35"/>
       <c r="Q10" s="42"/>
     </row>
-    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>34</v>
       </c>
@@ -3173,7 +3170,7 @@
       </c>
       <c r="Q12" s="35"/>
     </row>
-    <row r="13" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>178</v>
       </c>
@@ -3222,7 +3219,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="35"/>
     </row>
-    <row r="14" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>178</v>
       </c>
@@ -3271,7 +3268,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="35"/>
     </row>
-    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>178</v>
       </c>
@@ -3320,7 +3317,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="35"/>
     </row>
-    <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>178</v>
       </c>
@@ -3367,7 +3364,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="35"/>
     </row>
-    <row r="17" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>178</v>
       </c>
@@ -3459,7 +3456,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="35"/>
     </row>
-    <row r="19" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>178</v>
       </c>
@@ -3508,7 +3505,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="35"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>178</v>
       </c>
@@ -3602,7 +3599,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="35"/>
     </row>
-    <row r="22" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>178</v>
       </c>
@@ -3647,7 +3644,7 @@
       </c>
       <c r="Q22" s="35"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>178</v>
       </c>
@@ -3692,7 +3689,7 @@
       </c>
       <c r="Q23" s="35"/>
     </row>
-    <row r="24" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
         <v>178</v>
       </c>
@@ -3725,7 +3722,7 @@
       <c r="P24" s="35"/>
       <c r="Q24" s="42"/>
     </row>
-    <row r="25" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
         <v>178</v>
       </c>
@@ -3922,7 +3919,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>222</v>
       </c>
@@ -4082,7 +4079,7 @@
       </c>
       <c r="Q33" s="35"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>222</v>
       </c>
@@ -4125,7 +4122,7 @@
       </c>
       <c r="Q34" s="35"/>
     </row>
-    <row r="35" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
         <v>19</v>
       </c>
@@ -4160,7 +4157,7 @@
       <c r="P35" s="35"/>
       <c r="Q35" s="42"/>
     </row>
-    <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>222</v>
       </c>
@@ -4285,7 +4282,7 @@
       </c>
       <c r="Q38" s="35"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
         <v>19</v>
       </c>
@@ -4324,7 +4321,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="42"/>
     </row>
-    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
         <v>19</v>
       </c>
@@ -4398,7 +4395,7 @@
       </c>
       <c r="Q41" s="35"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>222</v>
       </c>
@@ -4478,7 +4475,7 @@
       </c>
       <c r="Q43" s="35"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>222</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
         <v>19</v>
       </c>
@@ -4558,7 +4555,7 @@
       </c>
       <c r="Q45" s="42"/>
     </row>
-    <row r="46" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
         <v>19</v>
       </c>
@@ -4593,7 +4590,7 @@
       </c>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
         <v>19</v>
       </c>
@@ -4628,7 +4625,7 @@
       </c>
       <c r="Q47" s="42"/>
     </row>
-    <row r="48" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
         <v>19</v>
       </c>
@@ -4663,7 +4660,7 @@
       </c>
       <c r="Q48" s="42"/>
     </row>
-    <row r="49" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>19</v>
       </c>
@@ -4698,7 +4695,7 @@
       </c>
       <c r="Q49" s="42"/>
     </row>
-    <row r="50" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
         <v>283</v>
       </c>
@@ -4735,7 +4732,7 @@
       </c>
       <c r="Q50" s="42"/>
     </row>
-    <row r="51" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
         <v>283</v>
       </c>
@@ -4813,7 +4810,7 @@
       </c>
       <c r="Q52" s="35"/>
     </row>
-    <row r="53" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
         <v>288</v>
       </c>
@@ -4850,7 +4847,7 @@
       </c>
       <c r="Q53" s="42"/>
     </row>
-    <row r="54" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="47" t="s">
         <v>288</v>
       </c>
@@ -4887,7 +4884,7 @@
       </c>
       <c r="Q54" s="42"/>
     </row>
-    <row r="55" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="50" t="s">
         <v>297</v>
       </c>
@@ -4922,7 +4919,7 @@
       </c>
       <c r="Q55" s="42"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>297</v>
       </c>
@@ -4963,7 +4960,7 @@
       </c>
       <c r="Q56" s="35"/>
     </row>
-    <row r="57" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
         <v>297</v>
       </c>
@@ -5000,7 +4997,7 @@
       </c>
       <c r="Q57" s="42"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="48" t="s">
         <v>297</v>
       </c>
@@ -5039,7 +5036,7 @@
       </c>
       <c r="Q58" s="35"/>
     </row>
-    <row r="59" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>297</v>
       </c>
@@ -5076,7 +5073,7 @@
       </c>
       <c r="Q59" s="42"/>
     </row>
-    <row r="60" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>297</v>
       </c>
@@ -5119,7 +5116,7 @@
       </c>
       <c r="Q60" s="35"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
         <v>297</v>
       </c>
@@ -5156,7 +5153,7 @@
       </c>
       <c r="Q61" s="42"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
         <v>54</v>
       </c>
@@ -5238,7 +5235,7 @@
       </c>
       <c r="Q63" s="35"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="48" t="s">
         <v>48</v>
       </c>
@@ -5322,7 +5319,7 @@
       </c>
       <c r="Q65" s="35"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="48" t="s">
         <v>48</v>
       </c>
@@ -5404,7 +5401,7 @@
       </c>
       <c r="Q67" s="35"/>
     </row>
-    <row r="68" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A68" s="47" t="s">
         <v>70</v>
       </c>
@@ -5439,7 +5436,7 @@
       <c r="P68" s="35"/>
       <c r="Q68" s="42"/>
     </row>
-    <row r="69" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A69" s="50" t="s">
         <v>70</v>
       </c>
@@ -5474,7 +5471,7 @@
       <c r="P69" s="35"/>
       <c r="Q69" s="42"/>
     </row>
-    <row r="70" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A70" s="50" t="s">
         <v>70</v>
       </c>
@@ -5509,7 +5506,7 @@
       <c r="P70" s="35"/>
       <c r="Q70" s="42"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
         <v>70</v>
       </c>
@@ -5624,7 +5621,7 @@
       </c>
       <c r="Q73" s="35"/>
     </row>
-    <row r="74" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="50" t="s">
         <v>70</v>
       </c>
@@ -5659,7 +5656,7 @@
       <c r="P74" s="35"/>
       <c r="Q74" s="42"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="47" t="s">
         <v>70</v>
       </c>
@@ -5694,7 +5691,7 @@
       <c r="P75" s="35"/>
       <c r="Q75" s="42"/>
     </row>
-    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A76" s="47" t="s">
         <v>70</v>
       </c>
@@ -5729,7 +5726,7 @@
       <c r="P76" s="35"/>
       <c r="Q76" s="42"/>
     </row>
-    <row r="77" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A77" s="47" t="s">
         <v>70</v>
       </c>
@@ -5764,7 +5761,7 @@
       <c r="P77" s="35"/>
       <c r="Q77" s="42"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="55" t="s">
         <v>357</v>
       </c>
@@ -5792,7 +5789,7 @@
       </c>
       <c r="P78" s="57"/>
     </row>
-    <row r="79" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A79" s="58" t="s">
         <v>288</v>
       </c>
@@ -5871,7 +5868,7 @@
       <c r="M81" s="51"/>
       <c r="P81" s="57"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="34" t="s">
         <v>34</v>
       </c>
@@ -5912,7 +5909,7 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="35"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="34" t="s">
         <v>34</v>
       </c>
@@ -5949,7 +5946,7 @@
       </c>
       <c r="Q83" s="35"/>
     </row>
-    <row r="84" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="63" t="s">
         <v>34</v>
       </c>
@@ -5984,7 +5981,7 @@
       <c r="P84" s="35"/>
       <c r="Q84" s="42"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="34" t="s">
         <v>34</v>
       </c>
@@ -6066,7 +6063,7 @@
       </c>
       <c r="Q86" s="35"/>
     </row>
-    <row r="87" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="34" t="s">
         <v>34</v>
       </c>
@@ -6107,7 +6104,7 @@
       </c>
       <c r="Q87" s="35"/>
     </row>
-    <row r="88" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A88" s="34" t="s">
         <v>34</v>
       </c>
@@ -6150,7 +6147,7 @@
       </c>
       <c r="Q88" s="35"/>
     </row>
-    <row r="89" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
         <v>34</v>
       </c>
@@ -6189,7 +6186,7 @@
       </c>
       <c r="Q89" s="35"/>
     </row>
-    <row r="90" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A90" s="34" t="s">
         <v>34</v>
       </c>
@@ -6228,7 +6225,7 @@
       </c>
       <c r="Q90" s="35"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="34" t="s">
         <v>34</v>
       </c>
@@ -6269,7 +6266,7 @@
       </c>
       <c r="Q91" s="35"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="34" t="s">
         <v>34</v>
       </c>
@@ -6353,7 +6350,7 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="35"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>178</v>
       </c>
@@ -6394,7 +6391,7 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="35"/>
     </row>
-    <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>178</v>
       </c>
@@ -6478,7 +6475,7 @@
       </c>
       <c r="Q96" s="35"/>
     </row>
-    <row r="97" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="48" t="s">
         <v>178</v>
       </c>
@@ -6511,7 +6508,7 @@
       <c r="P97" s="35"/>
       <c r="Q97" s="42"/>
     </row>
-    <row r="98" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A98" s="45" t="s">
         <v>178</v>
       </c>
@@ -6542,7 +6539,7 @@
       <c r="P98" s="35"/>
       <c r="Q98" s="42"/>
     </row>
-    <row r="99" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
         <v>222</v>
       </c>
@@ -6587,7 +6584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A100" s="47" t="s">
         <v>19</v>
       </c>
@@ -6622,7 +6619,7 @@
       <c r="P100" s="35"/>
       <c r="Q100" s="42"/>
     </row>
-    <row r="101" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50" t="s">
         <v>19</v>
       </c>
@@ -6657,7 +6654,7 @@
       <c r="P101" s="35"/>
       <c r="Q101" s="42"/>
     </row>
-    <row r="102" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>222</v>
       </c>
@@ -6825,7 +6822,7 @@
       </c>
       <c r="Q105" s="35"/>
     </row>
-    <row r="106" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
         <v>222</v>
       </c>
@@ -6866,7 +6863,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="50" t="s">
         <v>19</v>
       </c>
@@ -6901,7 +6898,7 @@
       </c>
       <c r="Q107" s="42"/>
     </row>
-    <row r="108" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
         <v>222</v>
       </c>
@@ -6946,7 +6943,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A109" s="50" t="s">
         <v>19</v>
       </c>
@@ -6979,7 +6976,7 @@
       <c r="P109" s="35"/>
       <c r="Q109" s="42"/>
     </row>
-    <row r="110" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>19</v>
       </c>
@@ -7012,7 +7009,7 @@
       <c r="P110" s="35"/>
       <c r="Q110" s="42"/>
     </row>
-    <row r="111" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="48" t="s">
         <v>222</v>
       </c>
@@ -7086,7 +7083,7 @@
       <c r="P112" s="35"/>
       <c r="Q112" s="42"/>
     </row>
-    <row r="113" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
         <v>222</v>
       </c>
@@ -7131,7 +7128,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
         <v>222</v>
       </c>
@@ -7176,7 +7173,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A115" s="50" t="s">
         <v>19</v>
       </c>
@@ -7211,7 +7208,7 @@
       </c>
       <c r="Q115" s="42"/>
     </row>
-    <row r="116" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A116" s="50" t="s">
         <v>19</v>
       </c>
@@ -7246,7 +7243,7 @@
       </c>
       <c r="Q116" s="42"/>
     </row>
-    <row r="117" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A117" s="50" t="s">
         <v>19</v>
       </c>
@@ -7281,7 +7278,7 @@
       </c>
       <c r="Q117" s="42"/>
     </row>
-    <row r="118" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="47" t="s">
         <v>19</v>
       </c>
@@ -7357,7 +7354,7 @@
       </c>
       <c r="Q119" s="42"/>
     </row>
-    <row r="120" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A120" s="50" t="s">
         <v>19</v>
       </c>
@@ -7392,7 +7389,7 @@
       </c>
       <c r="Q120" s="42"/>
     </row>
-    <row r="121" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A121" s="50" t="s">
         <v>19</v>
       </c>
@@ -7427,7 +7424,7 @@
       </c>
       <c r="Q121" s="42"/>
     </row>
-    <row r="122" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="50" t="s">
         <v>19</v>
       </c>
@@ -7462,7 +7459,7 @@
       </c>
       <c r="Q122" s="42"/>
     </row>
-    <row r="123" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="50" t="s">
         <v>19</v>
       </c>
@@ -7532,7 +7529,7 @@
       </c>
       <c r="Q124" s="42"/>
     </row>
-    <row r="125" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A125" s="50" t="s">
         <v>19</v>
       </c>
@@ -7567,7 +7564,7 @@
       </c>
       <c r="Q125" s="42"/>
     </row>
-    <row r="126" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="50" t="s">
         <v>19</v>
       </c>
@@ -7602,7 +7599,7 @@
       </c>
       <c r="Q126" s="42"/>
     </row>
-    <row r="127" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="50" t="s">
         <v>19</v>
       </c>
@@ -7637,7 +7634,7 @@
       </c>
       <c r="Q127" s="42"/>
     </row>
-    <row r="128" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="47" t="s">
         <v>19</v>
       </c>
@@ -7672,7 +7669,7 @@
       </c>
       <c r="Q128" s="42"/>
     </row>
-    <row r="129" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A129" s="50" t="s">
         <v>288</v>
       </c>
@@ -7711,7 +7708,7 @@
       <c r="P129" s="35"/>
       <c r="Q129" s="42"/>
     </row>
-    <row r="130" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="47" t="s">
         <v>288</v>
       </c>
@@ -7748,7 +7745,7 @@
       <c r="P130" s="35"/>
       <c r="Q130" s="42"/>
     </row>
-    <row r="131" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>288</v>
       </c>
@@ -7791,7 +7788,7 @@
       </c>
       <c r="Q131" s="35"/>
     </row>
-    <row r="132" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="47" t="s">
         <v>288</v>
       </c>
@@ -7826,7 +7823,7 @@
       </c>
       <c r="Q132" s="42"/>
     </row>
-    <row r="133" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A133" s="48" t="s">
         <v>288</v>
       </c>
@@ -7861,7 +7858,7 @@
       </c>
       <c r="Q133" s="42"/>
     </row>
-    <row r="134" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="48" t="s">
         <v>297</v>
       </c>
@@ -7904,7 +7901,7 @@
       <c r="P134" s="5"/>
       <c r="Q134" s="35"/>
     </row>
-    <row r="135" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="48" t="s">
         <v>297</v>
       </c>
@@ -7935,7 +7932,7 @@
       <c r="P135" s="35"/>
       <c r="Q135" s="42"/>
     </row>
-    <row r="136" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="48" t="s">
         <v>297</v>
       </c>
@@ -7980,7 +7977,7 @@
       <c r="P136" s="35"/>
       <c r="Q136" s="35"/>
     </row>
-    <row r="137" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="48" t="s">
         <v>297</v>
       </c>
@@ -8027,7 +8024,7 @@
       <c r="P137" s="35"/>
       <c r="Q137" s="35"/>
     </row>
-    <row r="138" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A138" s="50" t="s">
         <v>297</v>
       </c>
@@ -8062,7 +8059,7 @@
       </c>
       <c r="Q138" s="42"/>
     </row>
-    <row r="139" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="48" t="s">
         <v>297</v>
       </c>
@@ -8140,7 +8137,7 @@
       <c r="P140" s="5"/>
       <c r="Q140" s="35"/>
     </row>
-    <row r="141" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A141" s="48" t="s">
         <v>297</v>
       </c>
@@ -8173,7 +8170,7 @@
       <c r="P141" s="35"/>
       <c r="Q141" s="42"/>
     </row>
-    <row r="142" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="48" t="s">
         <v>297</v>
       </c>
@@ -8214,7 +8211,7 @@
       </c>
       <c r="Q142" s="35"/>
     </row>
-    <row r="143" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="50" t="s">
         <v>297</v>
       </c>
@@ -8252,9 +8249,7 @@
       <c r="Q143" s="42"/>
     </row>
     <row r="144" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="73" t="s">
-        <v>297</v>
-      </c>
+      <c r="A144" s="73"/>
       <c r="B144" s="74" t="s">
         <v>512</v>
       </c>
@@ -8339,7 +8334,7 @@
       </c>
       <c r="Q145" s="35"/>
     </row>
-    <row r="146" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="50" t="s">
         <v>297</v>
       </c>
@@ -8489,7 +8484,7 @@
       </c>
       <c r="Q149" s="35"/>
     </row>
-    <row r="150" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="50" t="s">
         <v>297</v>
       </c>
@@ -8526,7 +8521,7 @@
       </c>
       <c r="Q150" s="42"/>
     </row>
-    <row r="151" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A151" s="48" t="s">
         <v>297</v>
       </c>
@@ -8561,7 +8556,7 @@
       </c>
       <c r="Q151" s="42"/>
     </row>
-    <row r="152" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="48" t="s">
         <v>54</v>
       </c>
@@ -8600,7 +8595,7 @@
       </c>
       <c r="Q152" s="42"/>
     </row>
-    <row r="153" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A153" s="48" t="s">
         <v>54</v>
       </c>
@@ -8639,7 +8634,7 @@
       </c>
       <c r="Q153" s="35"/>
     </row>
-    <row r="154" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A154" s="47" t="s">
         <v>54</v>
       </c>
@@ -8725,7 +8720,7 @@
       <c r="AB155" s="32"/>
       <c r="AC155" s="32"/>
     </row>
-    <row r="156" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A156" s="48" t="s">
         <v>48</v>
       </c>
@@ -8774,7 +8769,7 @@
       <c r="P156" s="35"/>
       <c r="Q156" s="35"/>
     </row>
-    <row r="157" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A157" s="48" t="s">
         <v>48</v>
       </c>
@@ -8811,7 +8806,7 @@
       <c r="P157" s="35"/>
       <c r="Q157" s="42"/>
     </row>
-    <row r="158" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="48" t="s">
         <v>48</v>
       </c>
@@ -8901,7 +8896,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A160" s="48" t="s">
         <v>48</v>
       </c>
@@ -8951,8 +8946,8 @@
       <c r="B161" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>328</v>
+      <c r="C161" s="5">
+        <v>60</v>
       </c>
       <c r="D161" s="88" t="s">
         <v>550</v>
@@ -9104,7 +9099,7 @@
       </c>
       <c r="Q164" s="35"/>
     </row>
-    <row r="165" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A165" s="47" t="s">
         <v>48</v>
       </c>
@@ -9182,7 +9177,7 @@
       </c>
       <c r="Q166" s="35"/>
     </row>
-    <row r="167" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="48" t="s">
         <v>48</v>
       </c>
@@ -9221,7 +9216,7 @@
       </c>
       <c r="Q167" s="35"/>
     </row>
-    <row r="168" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A168" s="48" t="s">
         <v>48</v>
       </c>
@@ -9304,13 +9299,13 @@
         <v>48</v>
       </c>
       <c r="B170" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C170" s="5">
+        <v>10</v>
+      </c>
+      <c r="D170" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>136</v>
@@ -9328,7 +9323,7 @@
         <v>99</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K170" s="5" t="s">
         <v>229</v>
@@ -9346,18 +9341,18 @@
       </c>
       <c r="Q170" s="35"/>
     </row>
-    <row r="171" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="48" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B171" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C171" s="39">
         <v>10</v>
       </c>
       <c r="D171" s="40" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>136</v>
@@ -9375,7 +9370,7 @@
         <v>24</v>
       </c>
       <c r="J171" s="51" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K171" s="51" t="s">
         <v>328</v>
@@ -9396,11 +9391,11 @@
         <v>48</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C172" s="35"/>
       <c r="D172" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>136</v>
@@ -9434,18 +9429,18 @@
       </c>
       <c r="Q172" s="35"/>
     </row>
-    <row r="173" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B173" s="38" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C173" s="39">
         <v>20</v>
       </c>
       <c r="D173" s="53" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>136</v>
@@ -9471,16 +9466,16 @@
       <c r="P173" s="35"/>
       <c r="Q173" s="42"/>
     </row>
-    <row r="174" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A174" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C174" s="35"/>
       <c r="D174" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>136</v>
@@ -9515,11 +9510,11 @@
         <v>48</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C175" s="35"/>
       <c r="D175" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>136</v>
@@ -9551,16 +9546,16 @@
       </c>
       <c r="Q175" s="35"/>
     </row>
-    <row r="176" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C176" s="35"/>
       <c r="D176" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>136</v>
@@ -9594,16 +9589,16 @@
       </c>
       <c r="Q176" s="35"/>
     </row>
-    <row r="177" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A177" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C177" s="35"/>
       <c r="D177" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>136</v>
@@ -9621,10 +9616,10 @@
         <v>99</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K177" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L177" s="5" t="s">
         <v>167</v>
@@ -9639,18 +9634,18 @@
       </c>
       <c r="Q177" s="35"/>
     </row>
-    <row r="178" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A178" s="48" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B178" s="38" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C178" s="39">
         <v>30</v>
       </c>
       <c r="D178" s="40" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>136</v>
@@ -9674,18 +9669,18 @@
       </c>
       <c r="Q178" s="42"/>
     </row>
-    <row r="179" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A179" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C179" s="39">
         <v>10</v>
       </c>
       <c r="D179" s="40" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>136</v>
@@ -9709,18 +9704,18 @@
       </c>
       <c r="Q179" s="42"/>
     </row>
-    <row r="180" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A180" s="48" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C180" s="39">
         <v>30</v>
       </c>
       <c r="D180" s="46" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>136</v>
@@ -9746,14 +9741,14 @@
     </row>
     <row r="181" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C181" s="35"/>
       <c r="D181" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>136</v>
@@ -9771,10 +9766,10 @@
         <v>99</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L181" s="35"/>
       <c r="M181" s="5" t="s">
@@ -9789,16 +9784,16 @@
     </row>
     <row r="182" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A182" s="48" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B182" s="38" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C182" s="39">
         <v>20</v>
       </c>
       <c r="D182" s="40" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>136</v>
@@ -9827,11 +9822,11 @@
         <v>87</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C183" s="35"/>
       <c r="D183" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>134</v>
@@ -9870,11 +9865,11 @@
         <v>87</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C184" s="35"/>
       <c r="D184" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>136</v>
@@ -9911,11 +9906,11 @@
         <v>87</v>
       </c>
       <c r="B185" s="65" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C185" s="35"/>
       <c r="D185" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>136</v>
@@ -9947,18 +9942,18 @@
       </c>
       <c r="Q185" s="35"/>
     </row>
-    <row r="186" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A186" s="48" t="s">
         <v>87</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C186" s="39">
         <v>15</v>
       </c>
       <c r="D186" s="40" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>136</v>
@@ -9989,11 +9984,11 @@
         <v>87</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C187" s="35"/>
       <c r="D187" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>136</v>
@@ -10009,7 +10004,7 @@
       </c>
       <c r="I187" s="62"/>
       <c r="J187" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K187" s="35"/>
       <c r="L187" s="35"/>
@@ -10026,11 +10021,11 @@
         <v>87</v>
       </c>
       <c r="B188" s="65" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C188" s="35"/>
       <c r="D188" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>136</v>
@@ -10065,11 +10060,11 @@
         <v>87</v>
       </c>
       <c r="B189" s="65" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C189" s="90"/>
       <c r="D189" s="91" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>136</v>
@@ -10108,11 +10103,11 @@
         <v>87</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C190" s="35"/>
       <c r="D190" s="65" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>136</v>
@@ -10146,16 +10141,16 @@
       </c>
       <c r="Q190" s="35"/>
     </row>
-    <row r="191" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C191" s="35"/>
       <c r="D191" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>136</v>
@@ -10185,18 +10180,18 @@
       </c>
       <c r="Q191" s="35"/>
     </row>
-    <row r="192" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A192" s="47" t="s">
         <v>357</v>
       </c>
       <c r="B192" s="38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C192" s="39">
         <v>120</v>
       </c>
       <c r="D192" s="40" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>136</v>
@@ -10220,18 +10215,18 @@
       </c>
       <c r="Q192" s="42"/>
     </row>
-    <row r="193" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A193" s="48" t="s">
         <v>357</v>
       </c>
       <c r="B193" s="38" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C193" s="39">
         <v>60</v>
       </c>
       <c r="D193" s="40" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>137</v>
@@ -10260,11 +10255,11 @@
         <v>42</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C194" s="35"/>
       <c r="D194" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>134</v>
@@ -10280,10 +10275,10 @@
         <v>99</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L194" s="35"/>
       <c r="M194" s="5" t="s">
@@ -10298,16 +10293,16 @@
       <c r="P194" s="5"/>
       <c r="Q194" s="35"/>
     </row>
-    <row r="195" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A195" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C195" s="35"/>
       <c r="D195" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>136</v>
@@ -10325,7 +10320,7 @@
         <v>99</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K195" s="35"/>
       <c r="L195" s="5" t="s">
@@ -10341,16 +10336,16 @@
       </c>
       <c r="Q195" s="35"/>
     </row>
-    <row r="196" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A196" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C196" s="35"/>
       <c r="D196" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>136</v>
@@ -10386,16 +10381,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A197" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C197" s="35"/>
       <c r="D197" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>136</v>
@@ -10413,7 +10408,7 @@
         <v>99</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K197" s="35"/>
       <c r="L197" s="5" t="s">
@@ -10434,11 +10429,11 @@
         <v>42</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C198" s="35"/>
       <c r="D198" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>136</v>
@@ -10456,7 +10451,7 @@
         <v>66</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K198" s="35"/>
       <c r="L198" s="5" t="s">
@@ -10472,16 +10467,16 @@
       </c>
       <c r="Q198" s="35"/>
     </row>
-    <row r="199" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A199" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C199" s="35"/>
       <c r="D199" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>136</v>
@@ -10518,11 +10513,11 @@
         <v>42</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C200" s="42"/>
       <c r="D200" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>136</v>
@@ -10538,10 +10533,10 @@
         <v>99</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K200" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L200" s="5" t="s">
         <v>167</v>
@@ -10556,16 +10551,16 @@
       </c>
       <c r="Q200" s="35"/>
     </row>
-    <row r="201" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A201" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C201" s="35"/>
       <c r="D201" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>136</v>
@@ -10583,7 +10578,7 @@
         <v>66</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K201" s="35"/>
       <c r="L201" s="5" t="s">
@@ -10599,16 +10594,16 @@
       </c>
       <c r="Q201" s="35"/>
     </row>
-    <row r="202" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C202" s="35"/>
       <c r="D202" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>134</v>
@@ -10642,18 +10637,18 @@
       <c r="P202" s="35"/>
       <c r="Q202" s="35"/>
     </row>
-    <row r="203" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C203" s="70">
         <v>200</v>
       </c>
       <c r="D203" s="92" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>137</v>
@@ -10677,18 +10672,18 @@
       <c r="P203" s="35"/>
       <c r="Q203" s="42"/>
     </row>
-    <row r="204" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A204" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B204" s="38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C204" s="39">
         <v>5</v>
       </c>
       <c r="D204" s="40" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>137</v>
@@ -10712,18 +10707,18 @@
       <c r="P204" s="35"/>
       <c r="Q204" s="42"/>
     </row>
-    <row r="205" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="48" t="s">
         <v>70</v>
       </c>
       <c r="B205" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C205" s="39">
         <v>60</v>
       </c>
       <c r="D205" s="40" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>137</v>
@@ -10750,11 +10745,11 @@
         <v>70</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C206" s="35"/>
       <c r="D206" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>136</v>
@@ -10784,18 +10779,18 @@
       </c>
       <c r="Q206" s="35"/>
     </row>
-    <row r="207" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A207" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B207" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C207" s="39">
         <v>10</v>
       </c>
       <c r="D207" s="40" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>136</v>
@@ -10819,18 +10814,18 @@
       <c r="P207" s="35"/>
       <c r="Q207" s="42"/>
     </row>
-    <row r="208" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A208" s="47" t="s">
         <v>70</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C208" s="39">
         <v>30</v>
       </c>
       <c r="D208" s="40" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>136</v>
@@ -10854,18 +10849,18 @@
       <c r="P208" s="35"/>
       <c r="Q208" s="42"/>
     </row>
-    <row r="209" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A209" s="48" t="s">
         <v>70</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C209" s="39">
         <v>90</v>
       </c>
       <c r="D209" s="40" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>137</v>
@@ -10887,18 +10882,18 @@
       <c r="P209" s="35"/>
       <c r="Q209" s="42"/>
     </row>
-    <row r="210" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B210" s="38" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C210" s="39">
         <v>30</v>
       </c>
       <c r="D210" s="40" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>136</v>
@@ -10918,18 +10913,18 @@
       <c r="P210" s="35"/>
       <c r="Q210" s="42"/>
     </row>
-    <row r="211" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="48" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B211" s="52" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C211" s="67">
         <v>5</v>
       </c>
       <c r="D211" s="53" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>136</v>
@@ -10953,18 +10948,18 @@
       <c r="P211" s="35"/>
       <c r="Q211" s="42"/>
     </row>
-    <row r="212" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="48" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B212" s="52" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C212" s="67">
         <v>5</v>
       </c>
       <c r="D212" s="53" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>136</v>
@@ -10988,15 +10983,15 @@
       <c r="P212" s="35"/>
       <c r="Q212" s="42"/>
     </row>
-    <row r="213" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A213" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B213" s="56" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D213" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>136</v>
@@ -11016,15 +11011,15 @@
       </c>
       <c r="P213" s="57"/>
     </row>
-    <row r="214" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B214" s="56" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D214" s="56" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>136</v>
@@ -11034,7 +11029,7 @@
       </c>
       <c r="G214" s="5"/>
       <c r="H214" s="66" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I214" s="41">
         <v>66</v>
@@ -11044,15 +11039,15 @@
       </c>
       <c r="P214" s="57"/>
     </row>
-    <row r="215" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A215" s="55" t="s">
         <v>357</v>
       </c>
       <c r="B215" s="56" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D215" s="56" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>136</v>
@@ -11075,10 +11070,10 @@
         <v>34</v>
       </c>
       <c r="B216" s="59" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D216" s="59" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>136</v>
